--- a/media/templates/house_clients.xlsx
+++ b/media/templates/house_clients.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>names</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>house_number</t>
+  </si>
+  <si>
+    <t>gender</t>
   </si>
 </sst>
 </file>
@@ -372,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -385,7 +388,7 @@
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -404,9 +407,19 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Type male or female" prompt="Either Male or Female value" sqref="G1:G1048576">
+      <formula1>4</formula1>
+      <formula2>6</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
